--- a/lang/ja/headTags.xlsx
+++ b/lang/ja/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>ja</t>
+    <t>ja (Japanese)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ja/headTags.xlsx
+++ b/lang/ja/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2333">
   <si>
     <t>en</t>
   </si>
@@ -1895,6 +1895,12 @@
   </si>
   <si>
     <t>爆発的</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>アイ</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -7356,7 +7362,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10006,12 +10012,12 @@
         <v>656</v>
       </c>
       <c r="B330" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B331" t="s">
         <v>658</v>
@@ -11206,12 +11212,12 @@
         <v>955</v>
       </c>
       <c r="B480" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B481" t="s">
         <v>957</v>
@@ -14374,12 +14380,12 @@
         <v>1746</v>
       </c>
       <c r="B876" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B877" t="s">
         <v>1748</v>
@@ -14670,12 +14676,12 @@
         <v>1819</v>
       </c>
       <c r="B913" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B914" t="s">
         <v>1821</v>
@@ -16654,12 +16660,12 @@
         <v>2314</v>
       </c>
       <c r="B1161" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="B1162" t="s">
         <v>2316</v>
@@ -16721,8 +16727,16 @@
         <v>2330</v>
       </c>
     </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>2332</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ja/headTags.xlsx
+++ b/lang/ja/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2335">
   <si>
     <t>en</t>
   </si>
@@ -5609,6 +5609,12 @@
   </si>
   <si>
     <t>七つの大罪</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>シャドウ・オブ・ザ・コロッサス</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -7362,7 +7368,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -16668,12 +16674,12 @@
         <v>2316</v>
       </c>
       <c r="B1162" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="B1163" t="s">
         <v>2318</v>
@@ -16735,8 +16741,16 @@
         <v>2332</v>
       </c>
     </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2334</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ja/headTags.xlsx
+++ b/lang/ja/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2339">
   <si>
     <t>en</t>
   </si>
@@ -4445,6 +4445,12 @@
   </si>
   <si>
     <t>モータルコンバット</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>マウント・オブ・メイヘム</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -7374,7 +7380,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14392,12 +14398,12 @@
         <v>1746</v>
       </c>
       <c r="B876" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B877" t="s">
         <v>1748</v>
@@ -14688,12 +14694,12 @@
         <v>1819</v>
       </c>
       <c r="B913" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B914" t="s">
         <v>1821</v>
@@ -16688,12 +16694,12 @@
         <v>2318</v>
       </c>
       <c r="B1163" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="B1164" t="s">
         <v>2320</v>
@@ -16763,8 +16769,16 @@
         <v>2336</v>
       </c>
     </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>2338</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ja/headTags.xlsx
+++ b/lang/ja/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2341">
   <si>
     <t>en</t>
   </si>
@@ -2498,6 +2498,12 @@
   </si>
   <si>
     <t>フォント（レインボー）</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>フォント（レッドチゼルサンドストーン）</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -7380,7 +7386,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11230,12 +11236,12 @@
         <v>955</v>
       </c>
       <c r="B480" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B481" t="s">
         <v>957</v>
@@ -14406,12 +14412,12 @@
         <v>1748</v>
       </c>
       <c r="B877" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B878" t="s">
         <v>1750</v>
@@ -14702,12 +14708,12 @@
         <v>1821</v>
       </c>
       <c r="B914" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B915" t="s">
         <v>1823</v>
@@ -16702,12 +16708,12 @@
         <v>2320</v>
       </c>
       <c r="B1164" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="B1165" t="s">
         <v>2322</v>
@@ -16777,8 +16783,16 @@
         <v>2338</v>
       </c>
     </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2340</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ja/headTags.xlsx
+++ b/lang/ja/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2343">
   <si>
     <t>en</t>
   </si>
@@ -6593,6 +6593,12 @@
   </si>
   <si>
     <t>トワイライト・フォレスト</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>ねじれたワンダーランド</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -7386,7 +7392,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -16716,12 +16722,12 @@
         <v>2322</v>
       </c>
       <c r="B1165" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="B1166" t="s">
         <v>2324</v>
@@ -16791,8 +16797,16 @@
         <v>2340</v>
       </c>
     </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2342</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ja/headTags.xlsx
+++ b/lang/ja/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2345">
   <si>
     <t>en</t>
   </si>
@@ -3503,6 +3503,12 @@
   </si>
   <si>
     <t>ハイピクセル（ミニオン）</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>ハイピクセル（突然変異）タグ</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -7392,7 +7398,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14426,12 +14432,12 @@
         <v>1750</v>
       </c>
       <c r="B878" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B879" t="s">
         <v>1752</v>
@@ -14722,12 +14728,12 @@
         <v>1823</v>
       </c>
       <c r="B915" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B916" t="s">
         <v>1825</v>
@@ -16730,12 +16736,12 @@
         <v>2324</v>
       </c>
       <c r="B1166" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="B1167" t="s">
         <v>2326</v>
@@ -16805,8 +16811,16 @@
         <v>2342</v>
       </c>
     </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2344</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ja/headTags.xlsx
+++ b/lang/ja/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2347">
   <si>
     <t>en</t>
   </si>
@@ -3505,3547 +3505,3553 @@
     <t>ハイピクセル（ミニオン）</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>ハイピクセル（突然変異）</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>ハイピクセル（NPC）</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>ハイピクセル（ペット）</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>ハイピクセル（リフォージ・ストーン）</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>ハイピクセル（サックス）</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>ハイピクセル（スキン）</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>ハイピクセル（タリスマン）</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>ハイピクセル（トロフィーフィッシュ）</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>宝石の国</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>イブ</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>氷河期</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>アイスクライマー</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>アイスクリーム</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>アイコン（GUI）</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>アイコン（アイアンブロック）</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>アイコン（その他）</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>アイコン（白背景）</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>アイデンティティV</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>イレーガー</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>イナズマイレブン</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>インクレディブル</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>インディ・ジョーンズ</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>インディゴ・パーク</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>負傷者</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>インナーレイヤー・ブロック</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>暗号化</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>昆虫</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>インサイド・アウト</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>犬夜叉</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>インベーダー・ジム</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>無敵</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>アイアンマン</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>それは</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>ジャク・アンド・ダクスター</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>ジャー</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>ジュエリー</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>ジョジョの奇妙な冒険</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>ジョジョの奇妙な冒険（スタンド）</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>旅</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>柔術海戦</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>ジャンプ王</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>ジュラシック・パーク</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>ジャスティス・リーグ</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>怪獣パラダイス</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>カケグルイ</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>カラテ・キッド</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>カタマリ・デイマシー</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>キッド・イカロス</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>キキの宅急便</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>キルラキル</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>キルゾーン</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>キム・ポッシブル</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>キメツノヤイバ</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>キングダムハーツ</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>カービー</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>キッチン</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>コノスバ</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>クーパリングス</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>カンフー・パンダ</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>黒子のバスケ</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>ランプシェード</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>風景</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>ランタン</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>天空の城ラピュタ</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>レイジータウン</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>リーグ・オブ・レジェンド</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>レフト4デッド</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>伝説のポケモン</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>レゴ</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>リーサルリーグ</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>ルイーナ図書館</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>ライフ・イズ・ストレンジ</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>リロ＆スティッチ</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>リンバス社</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>ライオン・キング</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>リトルビッグプラネット</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>リトル・マーメイド</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>小さな悪夢</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>リトル・ショップ・オブ・ホラーズ</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>リトルウィッチアカデミア</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>ラマ</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>ロゴ</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>ルーニー・テューンズ</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>ロード・オブ・ザ・リング</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>ラブライブ！</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>恋するクリーチャー</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>恋多き人</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>ラッキー・ルーク</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>機械部品</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>マッドファーザー</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>マッドマックス</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>メイド・イン・アビス</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>マッドネス・コンバット</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>まどか☆マギカ</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>メイクアップ</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>マオ・マオ ピュア・ハートのヒーローたち</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>メイプルストーリー</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>マーベル</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>メアリと魔女の花</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>マスコット</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>マスク</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>マスク（フル）</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>マスク（機能的）</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>マスク（健康）</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>マスク (マインクラフトのモブ)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>マスエフェクト</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>マスターズ・オブ・ユニバース</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>数学記号</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>マクドナルド</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>食事</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>中世</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>中世の酒場</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>中世戦用ヘルメット</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>メディエビル</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>メガ・エボリューション</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>メガマン</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>女神転生</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>メカクシティ 俳優</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>ミーム</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>ミーム（ドージェ）</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>ミーム（ペペ）</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>メタル</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>メタルギア</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>メトロ</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>メトロイド</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>メキシコ</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>ミッキーマウス</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>軍事装備</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>マインクラフト</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>マインクラフト岩盤版</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>マインクラフトダンジョン</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>マインクラフト・アース</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>マインクラフト教育版</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>マインクラフト伝説</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>マインクラフト・ライブ</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>マインクラフト・ムービー</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>マインクラフト ストーリーモード</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>マイナー</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>マインスイーパー</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>奇跡てんとう虫と猫のノワール物語</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>未来日記</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>ミラーズ・エッジ</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>ミス小林のドラゴンメイド</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>ミズノのリソースパック</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>モアナ</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>モダン・ウォーフェア・ヘルメット</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>お金</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>マネー・強盗</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>モニター</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>モンキーアイランド</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>モノクル</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>モンスター・ハイ</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>モンスターハンター</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>モンスターズ・インク</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>ムーミン</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>モータルコンバット</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>マウント・オブ・メイヘム</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>マウスウォッシュ</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>ミスター・ビーン</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>ムーラン</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>ムンド・ガトゥーロ</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>マペッツ</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>殺人ドローン</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>マッシュルーム</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>キノコ（バイオーム）</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>マッシュルーム（ヘッドウェア）</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>音楽</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>口ひげ</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>鹿の友ノコタン</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>僕のヒーローアカデミア</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>マイリトルポニー</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>となりのトトロ</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>私の歌うモンスター</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>ナルト</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>風の谷のナウシカ</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>ネコパラ</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>新世紀エヴァンゲリオン</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>ネザー（霊感）</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>ネザー（バニラ）</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>中立クリーチャー</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>中立者</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>大晦日</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>NieR:Automata（ニーア オートマタ</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>森の夜</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>ナイトメアー・ビフォア・クリスマス</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>忍者タートルズ</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>ノーゲーム・ノーライフ</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>ノーマンズ・スカイ</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>ノエル・ハウス・パーティー</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>北欧神話</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC（教育版）</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>ニュークリア・フォールアウト</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>核の玉座</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>番号</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>ナッツ</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>オーシャン</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>オクトダッド</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>オッドワールド</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>オフ</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>オフィサーキャップ</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>オギーとゴキブリ</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>オケゴム</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>古い</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>オリバー＆カンパニー</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>大森</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>ワンピース</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>ワンパンチマン</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>ワンショット</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>オンゲゼリグ</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>おにいちゃんはおしまい</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>オープンソースオブジェクト</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>オーブ</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>オーク</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>鉱石</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>臓器とボディパーツ</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>その他のヘッドギア</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>その他のイルミネーション</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>その他のミスティック・クリーチャー</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>アウター・レイヤー・ブロック</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>オーバーロード</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>オーバーウォッチ</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>パックマン</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>パシフィック・リム</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>おしゃぶり</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>ペインテッド・フェイス</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>ペールガーデン（インスパイア）</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>パンダ・ベア</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>パンズ・ラビリンス</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>ペーパープリーズ</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>パラッパ ザ・ラッパー</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>パーティー</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>ペストリーとスイーツ</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>ポー・パトロール</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>給料日</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>ピーナッツ（スヌーピー）</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>ペンギン</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>ペッパピッグ</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>元素周期表</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>ペルソナ</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>ペット用品</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>ピーター・パン</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>ファントム</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>フィニアス＆ファーブ</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>豚</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>ピグリン</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>ピッグマン</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>ピクミン</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>ピングー</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>ピンクパンサー</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>小指と脳</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>ピノキオ</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>パイレーツ・オブ・カリビアン</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>ピザタワー</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>プラネット</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>プラント vs. ゾンビ</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>プレイヤーアンノウンズ・バトルグラウンズ</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>ポカホンタス</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>ポケボール</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>ポケモン</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>ポケモン第1世代</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>ポケモン第2世代</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>ポケモン第3世代</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>ポケモンジェネレーション4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>ポケモンジェネレーション5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>ポケモンジェネレーション6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>ポケモン第7世代</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>ポケモンジェネレーション8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>ポケモンジェネレーション9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>ポケモンアイテム</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>ポケモントレーナー</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>シロクマ</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>ポンポコ</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>ポニョ</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>ポップ・チーム・エピック</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>ポプゴーズ</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>ポピー・プレイタイム</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>ポルコ・ロッソ</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>ポータル</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>ポストマン・パット</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>パワーレンジャー</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>パワーパフ ガールズ</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>プレデター</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>プレゼント</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>プライド</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>霊長類</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>もののけ姫</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>レイトン教授</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>パンプキン</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>カボチャ</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>句読点マーク</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>クエイク</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>ラビット</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>鉄道</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>雨の世界</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>ラタトゥイユ</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>ラチェット＆クランク</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:クリエイター</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Re:ゼロ</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>狂神の領域</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>レッド・デッド・リデンプション</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>赤ずきん</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>レッドストーン</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>地域型ポケモン</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>リグレター</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>レギュラーショー</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>爬虫類</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>レスキューレンジャー</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>バイオハザード</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>リズム天国</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>リボン</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>リック・アンド・モーティ</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>雨のリスク</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>エーテルのライバル</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>川</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>リバーデイル</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>ロビン・フッド</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>ロブロックス</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>ロボコップ</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>ロボット</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>ロッキー</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>ロッキー・ホラー・ショー</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>ネズミ</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>回転体</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>ロイヤル・ヘッドギア</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>ルーン</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>ルネスケープ</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>サックボーイ大冒険</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>悲しい生き物</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>悲しい人</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>サファリ（その他）</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>邪神ターニャのサガ</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>セーラームーン</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>さくら荘のペットな彼女</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>サムライ・ヘルメット</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>満足</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>ソウ</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>スカーフ</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>スクービー・ドゥー</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>SCPの封じ込め違反</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>悲鳴</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>スクリブレノーツ</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>シー・オブ・シーブス</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>船員</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>終わりのセラフ</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>シリアル・エクスペリメンツ・レイン</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>セサミストリート</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>七つの大罪</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>シャドウ・オブ・ザ・コロッサス</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>モルドールの影</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>羊</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>シャーロック・ホームズ</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>四月は君の嘘</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>下根田</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>光るポケモン</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>送料</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>ショベルナイト</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>シュレック</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>シュルカー</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>サイレントヒル</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>シルバガンナー</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>シンプソンズ</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>スケルトン</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>スケルトン（バニラ）</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>懐疑的な生き物</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>懐疑的な人</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>スカルガールズ</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>スカイリム</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>眠れる森の美女</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>スリーピング・クリーチャー</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>スリーピング・パーソン</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>スライス</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>スライム</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>スライム（バニラ）</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>スライムランチャー</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>スライムファン</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>スライ・クーパー</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>スマイト・ゴッズ</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>喫煙</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>スマーフ</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>スノーファイト</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>雪像</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>白雪姫と7人の小人</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>戦争の歌</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>ソニック・ザ・ヘッジホッグ</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>ソウル・ナイト</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>サウスパーク</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>宇宙旅行</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>スポーン・エッグ</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>スポーナー</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>スペランキー</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>スパイダー</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>スパイダー（バニラ）</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>スパイダーマン</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>千と千尋の神隠し</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>スプラトゥーン</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>スポンジ・ボブ</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>スプーキーのジャンプ・スケア・マンション</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>胞子</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>スポーツ</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>スプレッド</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>春から人生</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>スパイ×家族</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>スパイロ</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>イカゲーム</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>聖パトリックの日</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>スタックアップ</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>スターフォックス</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>スタートレック</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>スター対悪の勢力</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>スター・ウォーズ</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>スター・ウォーズ・ヘルメット</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>スター・ウォーズ・トルーパー・ヘルメット</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>スターバックス</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>スタークラフト</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>スターデューバレー</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>スターターポケモン</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>文房具</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>スチームパンク</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>シュタインズ・ゲート</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>スティーブ</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>スティーブン・ユニバース</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>ストーン</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>ストレージ（その他）</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>ストレンジャー・シングス</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>ストリートファイター</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>ストライダー</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>サブナウティカ</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>夏</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>サングラス</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>スーパーマリオ</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>スーパーナチュラル</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>サプライズ・クリーチャー</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>驚いた人</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>寿司</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>沼地</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>ソードアート・オンライン</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>テールスピン</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>もつれた</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>タットテール</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>チームフォートレス2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>テレタビーズ</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>テラリア</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>テラリア（カラミティ）</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>テトリス</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>感謝祭</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>スライムに転生したあの時</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>トームクラフト</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>タンタンの冒険</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>驚異のデジタル・サーカス</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>アメイジング・ワールド・オブ・ガムボール</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>バインディング・オブ・イサク</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>ザ・ボーイズ</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>猫の恩返し</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>コンジャリング</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>銅器時代</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>皇帝の新しいグルーヴ</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>イングリッシュ・アンサンブル・スター</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>フェアリー・オッドペアレンツ</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>ファイナル</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>フラッシュ</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>フリントストーンズ</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>ザ・フライ</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>庭園の目覚め</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>グッド・ダイナソー</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>名探偵ネズミ</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>ビリーとマンディのグリムな冒険</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>ノートルダムのせむし男</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>鉄の巨人</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>ラスト・ガーディアン</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>ラスト・オブ・アス</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>ゼルダの伝説</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>ロラックス</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>ネヴァーフッド</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>フクロウの家</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>プリンセスとカエル</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>レン＆スティンピー・ショー</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>エルドラドへの道</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>テキサス・チェーンソー大虐殺</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>スリー・キャバレロ</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>ウォルテン・ファイル</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>ウッディ・ウッドペッカー・ショー</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>きかんしゃトーマス</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>トール</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>レイチェルの夜</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>ティンカーズ・コンストラクト</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>タイタンフォール</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>東京グール</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>トムとジェリー</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>トゥームレイダー</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>明日のパイオニアたち</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>歯の隙間</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>とらドラ</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>トータル・ドラマ・アイランド</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>東方プロジェクト</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>おもちゃ</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>トイ・ストーリー</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>交通信号</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>交通標識</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>軌跡と物語</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>トランスフォーマー</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>トランスフォーム</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>透明ヘッド</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>ゴミ箱</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>宝物</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>トレジャー・プラネット</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>トリッキーなトライアルの最新情報</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>トロン</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>タートル</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>トワイライト・フォレスト</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>ねじれたワンダーランド</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>ウルトラキル</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>うみねこ - 彼らが泣くとき</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>アンダーテール</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>アンダーテールAU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>アンダーテイル イエロー</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>ユニバーサル・シンボル</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>上へ</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>都会の野生動物</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>Vフォー・ヴェンデッタ</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>バレンタイン</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>バロラント</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>バニラ（除去）</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>バニラ・ブロック</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>バニラ・フード</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>バニラ・ヘルメット</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>バニラアイテム</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>バニラ・モブ</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>ヴォールト・ハンターズ</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>野菜</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>車両</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>バイキングス</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>村人</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>村人（砂漠）</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>村人（ジャングル）</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>村人（平原）</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>村人（サバンナ）</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>村人（雪のツンドラ）</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>村人（沼地）</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>村人（タイガ）</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>バーチャルYoutuber</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>ボーカロイド</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>ボルトロン</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>和風</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>ウォーキング・デッド</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>ウォール-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>ウォレスとグルミット</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>ウォー・オブ・ザ・ワールド</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>ウォークラフト</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>ウォーフレーム</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>ウォーハンマー</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>ウォリアー・キャッツ</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>ウィー・ベア・ベアーズ</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>ウィ・ハッピー・フュー</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>天気</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>ウェルカムホーム</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>これは誰ですか？</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>ワイルド・アップデート</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>炎の翼</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>くまのプーさん</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>冬</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>ウィッチャー</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>ワンダフルワンダーワールド</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>ウール</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>作業用安全ヘルメット</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>レック・イット・ラルフ</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>ワイベル</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>ウィンクラフト</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>X-メン</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>ゼノブレイドクロニクル</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>ヤンデレ・シミュレーター</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>イエロー・サブマリン</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>妖怪</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>ユカ・レイリー</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>ヤング</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>遊戯王</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>夢日記</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>ゼロの使い魔</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>ゼロ・ウィング</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>星座</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>ゾンビ</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>ゾンビ（バニラ）</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
+    <t>ズートピア</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>ハイピクセル（突然変異）タグ</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>ハイピクセル（NPC）</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>ハイピクセル（ペット）</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>ハイピクセル（リフォージ・ストーン）</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>ハイピクセル（サックス）</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>ハイピクセル（スキン）</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>ハイピクセル（タリスマン）</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>ハイピクセル（トロフィーフィッシュ）</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>宝石の国</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>イブ</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>氷河期</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>アイスクライマー</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>アイスクリーム</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>アイコン（GUI）</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>アイコン（アイアンブロック）</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>アイコン（その他）</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>アイコン（白背景）</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>アイデンティティV</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>イレーガー</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>イナズマイレブン</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>インクレディブル</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>インディ・ジョーンズ</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>インディゴ・パーク</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>負傷者</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>インナーレイヤー・ブロック</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>暗号化</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>昆虫</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>インサイド・アウト</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>犬夜叉</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>インベーダー・ジム</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>無敵</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>アイアンマン</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>それは</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>ジャク・アンド・ダクスター</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>ジャー</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>ジュエリー</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>ジョジョの奇妙な冒険</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>ジョジョの奇妙な冒険（スタンド）</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>旅</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>柔術海戦</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>ジャンプ王</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>ジュラシック・パーク</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>ジャスティス・リーグ</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>怪獣パラダイス</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>カケグルイ</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>カラテ・キッド</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>カタマリ・デイマシー</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>キッド・イカロス</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>キキの宅急便</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>キルラキル</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>キルゾーン</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>キム・ポッシブル</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>キメツノヤイバ</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>キングダムハーツ</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>カービー</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>キッチン</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>コノスバ</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>クーパリングス</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>カンフー・パンダ</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>黒子のバスケ</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>ランプシェード</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>風景</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>ランタン</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>天空の城ラピュタ</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>レイジータウン</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>リーグ・オブ・レジェンド</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>レフト4デッド</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>伝説のポケモン</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>レゴ</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>リーサルリーグ</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>ルイーナ図書館</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>ライフ・イズ・ストレンジ</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>リロ＆スティッチ</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>リンバス社</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>ライオン・キング</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>リトルビッグプラネット</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>リトル・マーメイド</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>小さな悪夢</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>リトル・ショップ・オブ・ホラーズ</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>リトルウィッチアカデミア</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>ラマ</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>ロゴ</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>ルーニー・テューンズ</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>ロード・オブ・ザ・リング</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>ラブライブ！</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>恋するクリーチャー</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>恋多き人</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>ラッキー・ルーク</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>機械部品</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>マッドファーザー</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>マッドマックス</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>メイド・イン・アビス</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>マッドネス・コンバット</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>まどか☆マギカ</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>メイクアップ</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>男性</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>マオ・マオ ピュア・ハートのヒーローたち</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>メイプルストーリー</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>マーベル</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>メアリと魔女の花</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>マスコット</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>マスク</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>マスク（フル）</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>マスク（機能的）</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>マスク（健康）</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>マスク (マインクラフトのモブ)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>マスエフェクト</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>マスターズ・オブ・ユニバース</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>数学記号</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>マクドナルド</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>食事</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>肉</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>中世</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>中世の酒場</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>中世戦用ヘルメット</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>メディエビル</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>メガ・エボリューション</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>メガマン</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>女神転生</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>メカクシティ 俳優</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>ミーム</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>ミーム（ドージェ）</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>ミーム（ペペ）</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>メタル</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>メタルギア</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>メトロ</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>メトロイド</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>メキシコ</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>ミッキーマウス</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>軍事装備</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>マインクラフト</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>マインクラフト岩盤版</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>マインクラフトダンジョン</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>マインクラフト・アース</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>マインクラフト教育版</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>マインクラフト伝説</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>マインクラフト・ライブ</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>マインクラフト・ムービー</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>マインクラフト ストーリーモード</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>マイナー</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>マインスイーパー</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>奇跡てんとう虫と猫のノワール物語</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>未来日記</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>ミラーズ・エッジ</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>ミス小林のドラゴンメイド</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>ミズノのリソースパック</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>モアナ</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>モダン・ウォーフェア・ヘルメット</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>お金</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>マネー・強盗</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>モニター</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>モンキーアイランド</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>モノクル</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>モンスター・ハイ</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>モンスターハンター</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>モンスターズ・インク</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>ムーミン</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>モータルコンバット</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>マウント・オブ・メイヘム</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>マウスウォッシュ</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>ミスター・ビーン</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>ムーラン</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>ムンド・ガトゥーロ</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>マペッツ</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>殺人ドローン</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>マッシュルーム</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>キノコ（バイオーム）</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>マッシュルーム（ヘッドウェア）</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>音楽</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>口ひげ</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>鹿の友ノコタン</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>僕のヒーローアカデミア</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>マイリトルポニー</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>となりのトトロ</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>私の歌うモンスター</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>ナルト</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>風の谷のナウシカ</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>ネコパラ</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>新世紀エヴァンゲリオン</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>ネザー（霊感）</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>ネザー（バニラ）</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>中立クリーチャー</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>中立者</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>大晦日</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>NieR:Automata（ニーア オートマタ</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>森の夜</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>ナイトメアー・ビフォア・クリスマス</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>忍者タートルズ</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>ノーゲーム・ノーライフ</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>ノーマンズ・スカイ</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>ノエル・ハウス・パーティー</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>北欧神話</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC（教育版）</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>ニュークリア・フォールアウト</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>核の玉座</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>番号</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>ナッツ</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>オーシャン</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>オクトダッド</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>オッドワールド</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>オフ</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>オフィサーキャップ</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>オギーとゴキブリ</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>オケゴム</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>古い</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>オリバー＆カンパニー</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>大森</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>ワンピース</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>ワンパンチマン</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>ワンショット</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>オンゲゼリグ</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>おにいちゃんはおしまい</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>オープンソースオブジェクト</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>オーブ</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>オーク</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>鉱石</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>臓器とボディパーツ</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>その他のヘッドギア</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>その他のイルミネーション</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>その他のミスティック・クリーチャー</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>アウター・レイヤー・ブロック</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>オーバーロード</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>オーバーウォッチ</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>パックマン</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>パシフィック・リム</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>おしゃぶり</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>ペインテッド・フェイス</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>ペールガーデン（インスパイア）</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>パンダ・ベア</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>パンズ・ラビリンス</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>ペーパープリーズ</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>パラッパ ザ・ラッパー</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>パーティー</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>ペストリーとスイーツ</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>ポー・パトロール</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>給料日</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>ピーナッツ（スヌーピー）</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>ペンギン</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>ペッパピッグ</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>元素周期表</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>ペルソナ</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>ペット用品</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>ピーター・パン</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>ファントム</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>フィニアス＆ファーブ</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>豚</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>ピグリン</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>ピッグマン</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>ピクミン</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>ピングー</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>ピンクパンサー</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>小指と脳</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>ピノキオ</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>パイレーツ・オブ・カリビアン</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>ピザタワー</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>プラネット</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>プラント vs. ゾンビ</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>プレイヤーアンノウンズ・バトルグラウンズ</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>ポカホンタス</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>ポケボール</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>ポケモン</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>ポケモン第1世代</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>ポケモン第2世代</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>ポケモン第3世代</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>ポケモンジェネレーション4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>ポケモンジェネレーション5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>ポケモンジェネレーション6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>ポケモン第7世代</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>ポケモンジェネレーション8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>ポケモンジェネレーション9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>ポケモンアイテム</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>ポケモントレーナー</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>シロクマ</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>警察</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>ポンポコ</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>ポニョ</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>ポップ・チーム・エピック</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>ポプゴーズ</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>ポピー・プレイタイム</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>ポルコ・ロッソ</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>ポータル</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>ポストマン・パット</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>パワーレンジャー</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>パワーパフ ガールズ</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>プレデター</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>プレゼント</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>プライド</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>霊長類</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>もののけ姫</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>レイトン教授</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>パンプキン</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>カボチャ</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>句読点マーク</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>クエイク</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>ラビット</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>鉄道</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>雨の世界</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>ラタトゥイユ</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>ラチェット＆クランク</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:クリエイター</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Re:ゼロ</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>狂神の領域</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>レッド・デッド・リデンプション</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>赤ずきん</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>レッドストーン</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>地域型ポケモン</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>リグレター</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>レギュラーショー</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>爬虫類</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>レスキューレンジャー</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>バイオハザード</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>リズム天国</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>リボン</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>リック・アンド・モーティ</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>雨のリスク</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>エーテルのライバル</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>川</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>リバーデイル</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>ロビン・フッド</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>ロブロックス</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>ロボコップ</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>ロボット</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>ロッキー</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>ロッキー・ホラー・ショー</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>ネズミ</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>回転体</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>ロイヤル・ヘッドギア</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>ルーン</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>ルネスケープ</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>サックボーイ大冒険</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>悲しい生き物</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>悲しい人</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>サファリ（その他）</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>邪神ターニャのサガ</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>セーラームーン</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>さくら荘のペットな彼女</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>サムライ・ヘルメット</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>満足</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>ソウ</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>スカーフ</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>スクービー・ドゥー</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>SCPの封じ込め違反</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>悲鳴</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>スクリブレノーツ</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>シー・オブ・シーブス</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>船員</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>終わりのセラフ</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>シリアル・エクスペリメンツ・レイン</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>セサミストリート</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>七つの大罪</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>シャドウ・オブ・ザ・コロッサス</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>モルドールの影</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>羊</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>シャーロック・ホームズ</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>四月は君の嘘</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>下根田</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>光るポケモン</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>送料</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>ショベルナイト</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>シュレック</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>シュルカー</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>サイレントヒル</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>シルバガンナー</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>シンプソンズ</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>スケルトン</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>スケルトン（バニラ）</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>懐疑的な生き物</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>懐疑的な人</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>スカルガールズ</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>スカイリム</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>眠れる森の美女</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>スリーピング・クリーチャー</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>スリーピング・パーソン</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>スライス</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>スライム</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>スライム（バニラ）</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>スライムランチャー</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>スライムファン</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>スライ・クーパー</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>スマイト・ゴッズ</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>喫煙</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>スマーフ</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>スノーファイト</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>雪像</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>白雪姫と7人の小人</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>戦争の歌</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>ソニック・ザ・ヘッジホッグ</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>ソウル・ナイト</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>サウスパーク</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>宇宙旅行</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>スポーン・エッグ</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>スポーナー</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>スペランキー</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>スパイダー</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>スパイダー（バニラ）</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>スパイダーマン</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>千と千尋の神隠し</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>スプラトゥーン</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>スポンジ・ボブ</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>スプーキーのジャンプ・スケア・マンション</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>胞子</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>スポーツ</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>スプレッド</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>春から人生</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>スパイ×家族</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>スパイロ</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>イカゲーム</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>聖パトリックの日</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>スタックアップ</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>スターフォックス</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>スタートレック</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>スター対悪の勢力</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>スター・ウォーズ</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>スター・ウォーズ・ヘルメット</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>スター・ウォーズ・トルーパー・ヘルメット</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>スターバックス</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>スタークラフト</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>スターデューバレー</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>スターターポケモン</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>文房具</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>スチームパンク</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>シュタインズ・ゲート</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>スティーブ</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>スティーブン・ユニバース</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>ストーン</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>ストレージ（その他）</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>ストレンジャー・シングス</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>ストリートファイター</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>ストライダー</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>サブナウティカ</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>夏</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>サングラス</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>スーパーマリオ</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>スーパーナチュラル</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>サプライズ・クリーチャー</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>驚いた人</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>寿司</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>沼地</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>ソードアート・オンライン</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>テールスピン</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>もつれた</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>タットテール</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>チームフォートレス2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>テレタビーズ</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>テラリア</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>テラリア（カラミティ）</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>テトリス</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>感謝祭</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>スライムに転生したあの時</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>トームクラフト</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>タンタンの冒険</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>驚異のデジタル・サーカス</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>アメイジング・ワールド・オブ・ガムボール</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>バインディング・オブ・イサク</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>ザ・ボーイズ</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>猫の恩返し</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>コンジャリング</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>銅器時代</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>皇帝の新しいグルーヴ</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>イングリッシュ・アンサンブル・スター</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>フェアリー・オッドペアレンツ</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>ファイナル</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>フラッシュ</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>フリントストーンズ</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>ザ・フライ</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>庭園の目覚め</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>グッド・ダイナソー</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>名探偵ネズミ</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>ビリーとマンディのグリムな冒険</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>ノートルダムのせむし男</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>鉄の巨人</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>ラスト・ガーディアン</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>ラスト・オブ・アス</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>ゼルダの伝説</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>ロラックス</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>ネヴァーフッド</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>フクロウの家</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>プリンセスとカエル</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>レン＆スティンピー・ショー</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>エルドラドへの道</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>テキサス・チェーンソー大虐殺</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>スリー・キャバレロ</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>ウォルテン・ファイル</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>ウッディ・ウッドペッカー・ショー</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>きかんしゃトーマス</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>トール</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>レイチェルの夜</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>ティンカーズ・コンストラクト</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>タイタンフォール</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>東京グール</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>トムとジェリー</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>トゥームレイダー</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>明日のパイオニアたち</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>歯の隙間</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>とらドラ</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>トータル・ドラマ・アイランド</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>東方プロジェクト</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>おもちゃ</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>トイ・ストーリー</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>交通</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>交通信号</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>交通標識</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>軌跡と物語</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>トランスフォーマー</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>トランスフォーム</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>透明ヘッド</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>ゴミ箱</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>宝物</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>トレジャー・プラネット</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>トリッキーなトライアルの最新情報</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>トロン</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>タートル</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>トワイライト・フォレスト</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>ねじれたワンダーランド</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>ウルトラキル</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>うみねこ - 彼らが泣くとき</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>アンダーテール</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>アンダーテールAU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>アンダーテイル イエロー</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>ユニバーサル・シンボル</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>上へ</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>都会の野生動物</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>Vフォー・ヴェンデッタ</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>バレンタイン</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>バロラント</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>バニラ（除去）</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>バニラ・ブロック</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>バニラ・フード</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>バニラ・ヘルメット</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>バニラアイテム</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>バニラ・モブ</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>ヴォールト・ハンターズ</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>野菜</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>車両</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>バイキングス</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>村人</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>村人（砂漠）</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>村人（ジャングル）</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>村人（平原）</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>村人（サバンナ）</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>村人（雪のツンドラ）</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>村人（沼地）</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>村人（タイガ）</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>バーチャルYoutuber</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>ボーカロイド</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>ボルトロン</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>和風</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>ウォーキング・デッド</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>ウォール-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>ウォレスとグルミット</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>ウォー・オブ・ザ・ワールド</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>ウォークラフト</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>ウォーフレーム</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>ウォーハンマー</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>ウォリアー・キャッツ</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>ウィー・ベア・ベアーズ</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>ウィ・ハッピー・フュー</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>天気</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>ウェルカムホーム</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>これは誰ですか？</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>ワイルド・アップデート</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>炎の翼</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>くまのプーさん</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>冬</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>ウィッチャー</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>ワンダフルワンダーワールド</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>木材</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>ウール</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>作業用安全ヘルメット</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>レック・イット・ラルフ</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>ワイベル</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>ウィンクラフト</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>X-メン</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>ゼノブレイドクロニクル</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>ヤンデレ・シミュレーター</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>イエロー・サブマリン</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>妖怪</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>ユカ・レイリー</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>ヤング</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>遊戯王</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>夢日記</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>ゼロの使い魔</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>ゼロ・ウィング</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>星座</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>ゾンビ</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>ゾンビ（バニラ）</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
-  </si>
-  <si>
-    <t>ズートピア</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -7398,7 +7404,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -16819,8 +16825,16 @@
         <v>2344</v>
       </c>
     </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2346</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
